--- a/mySystem/mySystem/xls/PTV/4 SOP-MFG-102-R02A 生产退料记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/4 SOP-MFG-102-R02A 生产退料记录.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\303，CS   2#制袋岗位记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="退料20170905" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -736,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -744,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
@@ -989,39 +984,25 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A15" s="15" t="s">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="17" spans="2:3" ht="24.2" customHeight="1">
-      <c r="B17" s="19" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.2" customHeight="1">
+      <c r="B16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
